--- a/functions/pdf_generator/data/data_payslip.xlsx
+++ b/functions/pdf_generator/data/data_payslip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\payroll system\payroll-system\functions\pdf_generator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B953533-2FF7-4CB7-9AFF-757C4B416938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADAD04-D3C5-4492-91EE-982DCCD8E6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,57 +461,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="7" width="16.140625" customWidth="1"/>
+    <col min="3" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -532,7 +532,7 @@
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>19</v>
@@ -625,7 +625,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
     </row>

--- a/functions/pdf_generator/data/data_payslip.xlsx
+++ b/functions/pdf_generator/data/data_payslip.xlsx
@@ -563,128 +563,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>employee_name sample value</t>
+          <t>AMOGAS Data 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>address sample value</t>
+          <t>BELLO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>reference sample value</t>
+          <t>Sample Data 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>employer_name sample value</t>
+          <t>Sample Data 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>email sample value</t>
+          <t>Sample Data 1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>job_status sample value</t>
+          <t>sam17.bello@ymail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>deminimis sample value</t>
+          <t>Sample data 2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>basic_salary sample value</t>
+          <t>Sample data 2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>overtime sample value</t>
+          <t>Sample data 2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>gross_pay sample value</t>
+          <t>Sample data 2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>net_pay sample value</t>
+          <t>PHP 300</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>tax sample value</t>
+          <t>PHP 20000</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>sss sample value</t>
+          <t>FINAL PHP 20000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>loan sample value</t>
+          <t>₱26502.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>philhealth_payment sample value</t>
+          <t>₱857.61</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>hdmf sample value</t>
+          <t>₱1192.59</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>deductions sample value</t>
+          <t>PHP 200321300</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>postcode sample value</t>
+          <t>₱88.34</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>gender sample value</t>
+          <t>₱100.00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>grade sample value</t>
+          <t>₱2258.54</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>department sample value</t>
+          <t>₱24243.46</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>pay_date sample value</t>
+          <t>Sample data 2</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>philhealth_number sample value</t>
+          <t>₱857.61</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>taxable_pay sample value</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>pension_pay sample value</t>
-        </is>
+          <t>₱1192.59</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">

--- a/functions/pdf_generator/data/data_payslip.xlsx
+++ b/functions/pdf_generator/data/data_payslip.xlsx
@@ -561,29 +561,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AMOGAS Data 1</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BELLO</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sample Data 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sample Data 1</t>
-        </is>
-      </c>
+          <t>SAMUEL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sample Data 1</t>
+          <t>SAMUEL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -593,92 +581,72 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sample data 2</t>
+          <t>SAMUEL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sample data 2</t>
+          <t>SAMUEL</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Sample data 2</t>
+          <t>SAMUEL</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sample data 2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>PHP 300</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>PHP 20000</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>FINAL PHP 20000</t>
-        </is>
-      </c>
+          <t>SAMUEL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>₱26502.00</t>
+          <t>PHP 45310.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>₱857.61</t>
+          <t>PHP 4921.75</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>₱1192.59</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>PHP 200321300</t>
-        </is>
-      </c>
+          <t>PHP 2038.95</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>₱88.34</t>
+          <t>PHP 151.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>₱100.00</t>
+          <t>PHP 100.00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>₱2258.54</t>
+          <t>PHP 10211.74</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>₱24243.46</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Sample data 2</t>
-        </is>
-      </c>
+          <t>PHP 35098.26</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>₱857.61</t>
+          <t>PHP 4921.75</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>₱1192.59</t>
+          <t>PHP 2038.95</t>
         </is>
       </c>
       <c r="Y2" t="n">

--- a/functions/pdf_generator/data/data_payslip.xlsx
+++ b/functions/pdf_generator/data/data_payslip.xlsx
@@ -1,150 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\payroll system\payroll-system\functions\pdf_generator\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCEC9E7-D4B7-4B31-82A6-728E38CB377C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="employees" sheetId="1" r:id="rId1"/>
+    <sheet name="employees" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
-  <si>
-    <t>Pay Date - dd/mm/yy</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Employer Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Job Status</t>
-  </si>
-  <si>
-    <t>Post Code</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Minimis </t>
-  </si>
-  <si>
-    <t>Basic Salary</t>
-  </si>
-  <si>
-    <t>Overtime</t>
-  </si>
-  <si>
-    <t>Gross Pay</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>PhilHealth Payment</t>
-  </si>
-  <si>
-    <t>HDMF (Pag-IBIG)</t>
-  </si>
-  <si>
-    <t>Deductions</t>
-  </si>
-  <si>
-    <t>Net Pay</t>
-  </si>
-  <si>
-    <t>PhilHealth Number</t>
-  </si>
-  <si>
-    <t>Taxable Pay</t>
-  </si>
-  <si>
-    <t>SSS Pay</t>
-  </si>
-  <si>
-    <t>Other Payment Due</t>
-  </si>
-  <si>
-    <t>SAMUEL</t>
-  </si>
-  <si>
-    <t>sam17.bello@ymail.com</t>
-  </si>
-  <si>
-    <t>PHP 45310.00</t>
-  </si>
-  <si>
-    <t>PHP 4921.75</t>
-  </si>
-  <si>
-    <t>PHP 2038.95</t>
-  </si>
-  <si>
-    <t>PHP 151.03</t>
-  </si>
-  <si>
-    <t>PHP 100.00</t>
-  </si>
-  <si>
-    <t>PHP 10211.74</t>
-  </si>
-  <si>
-    <t>PHP 35098.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -483,146 +420,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pay Date - dd/mm/yy</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Employer Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Job Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Post Code</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De Minimis </t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basic Salary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Gross Pay</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>PhilHealth Payment</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HDMF (Pag-IBIG)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Deductions</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Net Pay</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>PhilHealth Number</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Taxable Pay</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>SSS Pay</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Other Payment Due</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SAMUEL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SAMUEL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>sam17.bello@ymail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SAMUEL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SAMUEL</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SAMUEL</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SAMUEL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>PHP 45310.00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>PHP 4921.75</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>PHP 2038.95</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>PHP 151.03</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>PHP 100.00</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>PHP 10211.74</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>PHP 35098.26</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>PHP 4921.75</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>PHP 2038.95</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/functions/pdf_generator/data/data_payslip.xlsx
+++ b/functions/pdf_generator/data/data_payslip.xlsx
@@ -561,66 +561,86 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>31/01/22</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>BELLO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BELLO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PR108920</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
+          <t>BELLO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>sam17.bello@ymail.com</t>
+          <t>lyahbianca.aquino04@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
+          <t>BELLO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
+          <t>SAMELQW</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
+          <t>SAMELQW</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+          <t>SAMELQW</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2000</v>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>PHP 45310.00</t>
+          <t>PHP 52800.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>PHP 4921.75</t>
+          <t>PHP 6703.75</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>PHP 2038.95</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+          <t>PHP 2376.00</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>3000</v>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>PHP 151.03</t>
+          <t>PHP 176.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -630,23 +650,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>PHP 10211.74</t>
+          <t>PHP 12355.75</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>PHP 35098.26</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr"/>
+          <t>PHP 40444.25</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>PH8351</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>PHP 4921.75</t>
+          <t>PHP 6703.75</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>PHP 2038.95</t>
+          <t>PHP 2376.00</t>
         </is>
       </c>
       <c r="Y2" t="n">

--- a/functions/pdf_generator/data/data_payslip.xlsx
+++ b/functions/pdf_generator/data/data_payslip.xlsx
@@ -563,84 +563,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31/01/22</t>
+          <t>07/02/22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BELLO</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BELLO</t>
+          <t>functions/firebase_connections/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PR108920</t>
+          <t>PR289297</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BELLO</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>lyahbianca.aquino04@gmail.com</t>
+          <t>bellosamuelb@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>BELLO</t>
+          <t>sam</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SAMELQW</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SAMELQW</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SAMELQW</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>45800</v>
+        <v>60000</v>
       </c>
       <c r="M2" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>PHP 52800.00</t>
+          <t>PHP 67300.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>PHP 6703.75</t>
+          <t>PHP 10153.54</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>PHP 2376.00</t>
+          <t>PHP 3028.50</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>PHP 176.00</t>
+          <t>PHP 224.33</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -650,27 +650,27 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>PHP 12355.75</t>
+          <t>PHP 18006.37</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>PHP 40444.25</t>
+          <t>PHP 49293.62</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>PH8351</t>
+          <t>PH5315</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>PHP 6703.75</t>
+          <t>PHP 10153.54</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>PHP 2376.00</t>
+          <t>PHP 3028.50</t>
         </is>
       </c>
       <c r="Y2" t="n">
